--- a/public/template.xlsx
+++ b/public/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edrian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edrian\Desktop\prjpayroll\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F36A39BA-940E-4C8C-A65B-70755BB1BC4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A6011D-999E-4E00-A826-B7F4F235E870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7661F084-EB6D-4511-8C2F-9FB7CF3ED610}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Regular days</t>
   </si>
@@ -95,13 +95,19 @@
     <t>Cash Advance</t>
   </si>
   <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
     <t>PREPARED BY:</t>
   </si>
   <si>
     <t>CHECKED BY:</t>
+  </si>
+  <si>
+    <t>Gross Pay</t>
+  </si>
+  <si>
+    <t>Deductions</t>
+  </si>
+  <si>
+    <t>Net Pay</t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -362,6 +368,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -369,28 +401,20 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -411,7 +435,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -422,37 +445,52 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -773,7 +811,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -790,432 +828,315 @@
     <col min="12" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="12" customWidth="1"/>
+    <col min="18" max="18" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="1" customFormat="1" ht="24.75">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:18" s="1" customFormat="1" ht="21.75">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
     </row>
     <row r="3" spans="1:18" s="1" customFormat="1" ht="15.75">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="40" t="s">
+      <c r="H3" s="45"/>
+      <c r="I3" s="45"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="L3" s="40" t="s">
+      <c r="L3" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" ht="31.5">
+      <c r="A4" s="32" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="46"/>
+      <c r="L4" s="46"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" ht="15.75">
+      <c r="A5" s="54"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="38"/>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" ht="15.75">
+      <c r="A6" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="37">
+        <f t="shared" ref="F6:O6" si="0">SUM(F5:F5)</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+    </row>
+    <row r="7" spans="1:18" s="1" customFormat="1">
+      <c r="P7" s="29"/>
+      <c r="Q7" s="30"/>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="41" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="1" customFormat="1" ht="31.5">
-      <c r="A4" s="44" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="43"/>
-      <c r="P4" s="41"/>
-    </row>
-    <row r="5" spans="1:18" s="1" customFormat="1" ht="15.75">
-      <c r="A5" s="47"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="50"/>
-      <c r="P5" s="50"/>
-    </row>
-    <row r="6" spans="1:18" s="1" customFormat="1" ht="15.75">
-      <c r="A6" s="51" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="48">
-        <f>SUM(F5:F5)</f>
-        <v>0</v>
-      </c>
-      <c r="G6" s="48">
-        <f>SUM(G5:G5)</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="48">
-        <f>SUM(H5:H5)</f>
-        <v>0</v>
-      </c>
-      <c r="I6" s="48">
-        <f>SUM(I5:I5)</f>
-        <v>0</v>
-      </c>
-      <c r="J6" s="48">
-        <f>SUM(J5:J5)</f>
-        <v>0</v>
-      </c>
-      <c r="K6" s="48">
-        <f>SUM(K5:K5)</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="48">
-        <f>SUM(L5:L5)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="48">
-        <f>SUM(M5:M5)</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="48">
-        <f>SUM(N5:N5)</f>
-        <v>0</v>
-      </c>
-      <c r="O6" s="48">
-        <f>SUM(O5:O5)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="50"/>
-      <c r="Q6" s="33"/>
-    </row>
-    <row r="7" spans="1:18" s="1" customFormat="1">
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="35"/>
-      <c r="R7" s="12"/>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="4" t="s">
+      <c r="B9" s="40"/>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="K10" s="2"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="52"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
+      <c r="B11" s="40"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="4"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="18"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="4"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="27"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="28"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="17"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="6"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="28"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="13"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="32"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="30"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="6"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="28"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="26"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="29"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="30"/>
-      <c r="N16" s="30"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="30"/>
-      <c r="Q16" s="30"/>
-      <c r="R16" s="4"/>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="4"/>
-      <c r="R17" s="4"/>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="4"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="26"/>
+    </row>
+    <row r="17" spans="2:16">
+      <c r="B17" s="2"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+    </row>
+    <row r="18" spans="2:16">
+      <c r="L18" s="11"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="P18" s="19"/>
+    </row>
+    <row r="19" spans="2:16">
+      <c r="L19" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A1:P1"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="G3:I3"/>
